--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Desktop\SDET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Desktop\SDET\Edu connect project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA04A80-7B69-468D-AAE0-A99FCAA6F955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28DC47-ED83-42DF-B81D-64418CB272F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5CF80C3-4EBD-4BF8-8816-9F0D87C4B922}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Project name</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>P3</t>
+  </si>
+  <si>
+    <t>Pratik nandan</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -208,7 +211,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -530,7 +532,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,22 +586,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -618,7 +620,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,10 +720,10 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2"/>
@@ -730,16 +732,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="2"/>
